--- a/src/ExcelsiorSyncfusion.Tests/WhitespaceTests.Whitespace.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/WhitespaceTests.Whitespace.verified.xlsx
@@ -155,13 +155,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.27734375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.84765625" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.27734375" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.84765625" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/src/ExcelsiorSyncfusion.Tests/WhitespaceTests.Whitespace.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/WhitespaceTests.Whitespace.verified.xlsx
@@ -187,7 +187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="28.5">
       <c r="A2" s="1">
         <v>1</v>
       </c>

--- a/src/ExcelsiorSyncfusion.Tests/WhitespaceTests.Whitespace.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/WhitespaceTests.Whitespace.verified.xlsx
@@ -155,13 +155,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.27734375" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.84765625" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
